--- a/data/financial_statements/soci/SYF.xlsx
+++ b/data/financial_statements/soci/SYF.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,1730 +587,1766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>4738000000</v>
+      </c>
+      <c r="C2">
         <v>4386000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4272000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4130000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4220000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3992000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3667000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3873000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4075000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3968000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3925000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4504000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4689000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5066000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4828000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4878000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4940000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4757000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4237000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4319000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>4353000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4309000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4027000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4006000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4032000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3880000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3598000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3612000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3596000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3476000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3297000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>3251000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>3422000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>3219000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>3038000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3048000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3167000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>3000000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>2810000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>2836000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.1227</v>
+      </c>
+      <c r="C3">
         <v>0.0987</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.165</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0664</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0356</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.006</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.06569999999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.1401</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.1309</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.2167</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.187</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0767</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.0508</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.065</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1395</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.1294</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1348</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.104</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0521</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0781</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0796</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1106</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.1192</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.1091</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.1212</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1162</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.09130000000000001</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.111</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0508</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0798</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0853</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.06660000000000001</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0805</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.073</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.08110000000000001</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.07480000000000001</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.0745</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.068</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.075</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0696</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>602000000</v>
+      </c>
+      <c r="C4">
         <v>414000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>272000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>233000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>223000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>240000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>266000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>303000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>334000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>380000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>434000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>517000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>556000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>592000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>583000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>560000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>543000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>488000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>437000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>402000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>375000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>357000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>333000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>326000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>319000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>315000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>303000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>311000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>301000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>289000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>270000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>275000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>282000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>244000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>206000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>190000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-1039000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>863000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>725000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>193000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>4136000000</v>
+      </c>
+      <c r="C5">
         <v>3972000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4000000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3897000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3997000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3752000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3401000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3570000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3741000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3588000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3491000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3987000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4133000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>4474000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4245000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>4318000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>4397000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4269000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>3800000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3917000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3978000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>3952000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>3694000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>3680000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>3713000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>3565000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>3295000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>3301000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>3295000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>3187000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>3027000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>2976000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>3140000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>2975000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>2832000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>2858000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>4206000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2137000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2085000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>2643000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>3395000000</v>
+      </c>
+      <c r="C6">
         <v>3050000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2934000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2664000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2950000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2252000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1760000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2255000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2797000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3176000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>3432000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3605000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>3212000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>3099000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3116000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2856000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3385000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>3376000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2908000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3070000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>3103000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>3073000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>2906000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2898000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2805000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>2602000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2524000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2373000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2427000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>2268000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2166000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>2093000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>2287000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>2096000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>2068000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1968000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>6705000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1116000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1229000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>2070000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>741000000</v>
+      </c>
+      <c r="C7">
         <v>922000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1066000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1233000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1047000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1500000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1641000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1315000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>944000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>412000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>59000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>382000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>921000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1375000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1129000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1462000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1012000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>893000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>892000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>847000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>875000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>879000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>788000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>782000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>908000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>963000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>771000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>928000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>868000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>919000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>861000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>883000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>853000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>879000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>764000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>890000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-2499000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1021000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>856000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>573000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8">
         <v>89000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>741000000</v>
+      </c>
+      <c r="C9">
         <v>922000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1066000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1233000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1047000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1500000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1641000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1315000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>944000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>412000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>59000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>382000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>921000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1375000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1129000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1462000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1012000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>893000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>892000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>847000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>875000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>879000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>788000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>782000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>908000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>963000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>771000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>928000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>868000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>919000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>861000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>883000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>853000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>879000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>764000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>890000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>692000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1021000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>856000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>573000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>164000000</v>
+      </c>
+      <c r="C10">
         <v>219000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>262000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>301000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>234000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>359000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>399000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>290000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>206000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>99000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>11000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>96000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>190000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>319000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>276000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>355000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>229000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>222000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>196000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>207000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>490000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>324000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>292000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>283000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>332000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>359000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>282000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>346000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>321000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>345000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>320000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>331000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>322000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>331000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>292000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>332000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>249000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>380000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>320000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>214000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>577000000</v>
+      </c>
+      <c r="C11">
         <v>703000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>804000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>932000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>813000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1141000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1242000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1025000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>738000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>313000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>48000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>286000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>731000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1056000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>853000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1107000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>783000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>671000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>696000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>640000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>385000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>555000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>496000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>499000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>576000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>604000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>489000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>582000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>547000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>574000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>541000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>552000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>531000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>548000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>472000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>558000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>443000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>641000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>536000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>359000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>11000000</v>
+        <v>10000000</v>
       </c>
       <c r="C13">
         <v>11000000</v>
       </c>
       <c r="D13">
-        <v>10000000</v>
+        <v>11000000</v>
       </c>
       <c r="E13">
         <v>10000000</v>
       </c>
       <c r="F13">
+        <v>10000000</v>
+      </c>
+      <c r="G13">
         <v>11000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>11000000</v>
-      </c>
-      <c r="I13">
-        <v>10000000</v>
       </c>
       <c r="J13">
         <v>10000000</v>
       </c>
       <c r="K13">
-        <v>11000000</v>
+        <v>10000000</v>
       </c>
       <c r="L13">
         <v>11000000</v>
       </c>
+      <c r="M13">
+        <v>11000000</v>
+      </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>567000000</v>
+      </c>
+      <c r="C14">
         <v>692000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>793000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>922000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>803000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1130000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1232000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1014000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>728000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>303000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>37000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>275000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>731000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1056000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>853000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1107000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>783000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>671000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>696000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>640000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>385000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>555000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>496000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>499000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>576000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>604000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>489000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>582000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>547000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>574000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>541000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>552000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>531000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>548000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>472000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>558000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>443000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>641000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>536000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>359000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>1.48</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.61</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.79</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.49</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2.02</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.13</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.74</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.25</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.52</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.06</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.45</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1.15</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1.6</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.25</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1.57</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.09</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.91</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.93</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.84</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.49</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.7</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0.62</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>0.61</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>0.7</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.73</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>0.59</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>0.7</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.66</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>0.65</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>0.66</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.64</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>0.7</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.67</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>0.79</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.63</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>0.91</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>1.47</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.6</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.77</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.48</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.12</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.73</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.24</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.52</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.06</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.45</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.15</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.6</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.24</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1.56</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1.09</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.91</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.92</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.83</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.49</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.7</v>
-      </c>
-      <c r="W16">
-        <v>0.61</v>
       </c>
       <c r="X16">
         <v>0.61</v>
       </c>
       <c r="Y16">
+        <v>0.61</v>
+      </c>
+      <c r="Z16">
         <v>0.7</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.73</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.58</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.7</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0.65</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>0.65</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>0.66</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.64</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.7</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.67</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.79</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.63</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.91</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>445800000</v>
+      </c>
+      <c r="C17">
         <v>468500000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>493000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>515300000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>564600000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>560600000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>577200000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>583300000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>589000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>583800000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>583700000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>604900000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>670200000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>658300000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>683600000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>706300000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>742300000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>734900000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>752200000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>763700000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>795600000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>787300000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>804000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>813100000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>829200000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>828400000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>833900000</v>
-      </c>
-      <c r="AB17">
-        <v>833800000</v>
       </c>
       <c r="AC17">
         <v>833800000</v>
       </c>
       <c r="AD17">
-        <v>834000000</v>
+        <v>833800000</v>
       </c>
       <c r="AE17">
         <v>834000000</v>
@@ -2205,271 +2355,280 @@
         <v>834000000</v>
       </c>
       <c r="AG17">
+        <v>834000000</v>
+      </c>
+      <c r="AH17">
         <v>757400000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>782000000</v>
-      </c>
-      <c r="AI17">
-        <v>705000000</v>
       </c>
       <c r="AJ17">
         <v>705000000</v>
       </c>
       <c r="AK17">
+        <v>705000000</v>
+      </c>
+      <c r="AL17">
         <v>705300000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>705000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>705271000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>448900000</v>
+      </c>
+      <c r="C18">
         <v>470700000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>495300000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>519500000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>569300000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>565600000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>581700000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>587500000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>590800000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>584800000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>584400000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>607400000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>673500000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>661700000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>686500000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>708900000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>746900000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>738800000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>758300000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>770300000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>799700000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>790900000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>807400000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>817100000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>831500000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>830600000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>836200000</v>
-      </c>
-      <c r="AB18">
-        <v>835500000</v>
       </c>
       <c r="AC18">
         <v>835500000</v>
       </c>
       <c r="AD18">
+        <v>835500000</v>
+      </c>
+      <c r="AE18">
         <v>836000000</v>
-      </c>
-      <c r="AE18">
-        <v>835000000</v>
       </c>
       <c r="AF18">
         <v>835000000</v>
       </c>
       <c r="AG18">
+        <v>835000000</v>
+      </c>
+      <c r="AH18">
         <v>757600000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>782000000</v>
-      </c>
-      <c r="AI18">
-        <v>705000000</v>
       </c>
       <c r="AJ18">
         <v>705000000</v>
       </c>
       <c r="AK18">
+        <v>705000000</v>
+      </c>
+      <c r="AL18">
         <v>705300000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>705000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>705271000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>0.8729</v>
+      </c>
+      <c r="C19">
         <v>0.9056</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.9363</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.9436</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.9472</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.9399</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.9275</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.9218</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.918</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.9042</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.8894</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.8852</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.8814</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.8831</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.8792</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.8852</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.8901</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.8974</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.8969</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.9069</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.9139</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.9172</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.9173</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.9186</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.9209000000000001</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.9188</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.9157999999999999</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.9139</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.9163</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.9169</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.9181</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.9154</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.9176</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.9242</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.9322</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.9377</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1.3281</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.7123</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.742</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.9319</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2588,1084 +2747,1108 @@
       <c r="AN20">
         <v>0</v>
       </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.1564</v>
+      </c>
+      <c r="C21">
         <v>0.2102</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2495</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2985</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.2481</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.3758</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.4475</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.3395</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2317</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.1038</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.015</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.0848</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.1964</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2714</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2338</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2997</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.2049</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.1877</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2105</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.1961</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.201</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.204</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.1957</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.1952</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.2252</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.2482</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2143</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2569</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2414</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2644</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2611</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.2716</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.2493</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.2731</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2515</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.292</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.2185</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.3403</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.3046</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.202</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1197</v>
+      </c>
+      <c r="C22">
         <v>0.1578</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.1856</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2232</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.1903</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2831</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.336</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.2618</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.1787</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.0764</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.0094</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.0611</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1559</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.2084</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.1767</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.2269</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.1585</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.1411</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.1643</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.1482</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.08840000000000001</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.1288</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.1232</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.1246</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.1429</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1557</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.1359</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1611</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.1521</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1651</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.1641</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.1698</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.1552</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.1702</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.1554</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1831</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1399</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2137</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1907</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.1266</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>577000000</v>
+      </c>
+      <c r="C23">
         <v>703000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>804000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>932000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>813000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1141000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1242000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1025000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>738000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>313000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>48000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>286000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>731000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1056000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>853000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1107000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>783000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>671000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>696000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>640000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>385000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>555000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>496000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>499000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>576000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>604000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>489000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>582000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>547000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>574000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>541000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>552000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>531000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>548000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>472000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>558000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>443000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>641000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>536000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>359000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>577000000</v>
+      </c>
+      <c r="C25">
         <v>703000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>804000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>932000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>813000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1141000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1242000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1025000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>738000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>313000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>48000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>286000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>731000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1056000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>853000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1107000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>783000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>671000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>696000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>640000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>385000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>555000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>496000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>499000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>576000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>604000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>489000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>582000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>547000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>574000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>541000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>552000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>531000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>548000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>472000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>558000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>443000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>641000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>536000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>359000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1.2943</v>
+      </c>
+      <c r="C26">
         <v>1.5005</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.6308</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1.8087</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.5318</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.0353</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2.1518</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1.7572</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.2603</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.5361</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.0822</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.4728</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1.1716</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1.6041</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1.2478</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1.5673</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1.0822</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.913</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.9253</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.838</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.4966</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.7049</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.6169</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.6137</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.7010999999999999</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.7291</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.5864</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.698</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.6565</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.6882</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.6487000000000001</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.6619</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.6228</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.7008</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.6695</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.7915</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.6281</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.9092</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.76</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>1.2854</v>
+      </c>
+      <c r="C27">
         <v>1.4935</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.6233</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1.794</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.5172</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2.0173</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.1351</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.7447</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.2561</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.5352</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.08210000000000001</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.4709</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.1635</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1.5959</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1.2425</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1.5616</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1.0785</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.9082</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.9177999999999999</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.8308</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.4929</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.7017</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.6143</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.6107</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.6986</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.7272</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.5848</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.6966</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.6543</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.6866</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.6479</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.6611</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.622</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.7008</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.6695</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.7915</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.6281</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.9092</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.76</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1.2943</v>
+      </c>
+      <c r="C28">
         <v>1.5005</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.6308</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.8087</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.5318</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2.0353</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2.1518</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.7572</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1.2603</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.5361</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.0822</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.4728</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.1716</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1.6041</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1.2478</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.5673</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1.0822</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.913</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.9253</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.838</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.4966</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.7049</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.6169</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.6137</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.7010999999999999</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.7291</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.5864</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.698</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.6565</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.6882</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.6487000000000001</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.6619</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.6228</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.7008</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.6695</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.7915</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.6281</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.9092</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.76</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>1.2854</v>
+      </c>
+      <c r="C29">
         <v>1.4935</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.6233</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1.794</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.5172</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2.0173</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.1351</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1.7447</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1.2561</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.5352</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.08210000000000001</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.4709</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1.1635</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1.5959</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1.2425</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1.5616</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1.0785</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.9082</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.9177999999999999</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.8308</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.4929</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.7017</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.6143</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.6107</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.6986</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.7272</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.5848</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.6966</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.6543</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.6866</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0.6479</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.6611</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.622</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.7008</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.6695</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.7915</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.6281</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.9092</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.76</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>470700000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>495300000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>519500000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>543000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>565600000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>581700000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>587500000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>586600000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>584800000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>584400000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>607400000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>637700000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>661700000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>686500000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>708900000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>720900000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>738800000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>758300000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>770300000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>784000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>790900000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>807400000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>817100000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>823800000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>830600000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>836200000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>835500000</v>
-      </c>
-      <c r="AC30">
-        <v>835800000</v>
       </c>
       <c r="AD30">
         <v>835800000</v>
       </c>
       <c r="AE30">
+        <v>835800000</v>
+      </c>
+      <c r="AF30">
         <v>835400000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>835000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>834300000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>782000000</v>
-      </c>
-      <c r="AI30">
-        <v>705300000</v>
       </c>
       <c r="AJ30">
         <v>705300000</v>
@@ -3674,12 +3857,15 @@
         <v>705300000</v>
       </c>
       <c r="AL30">
+        <v>705300000</v>
+      </c>
+      <c r="AM30">
         <v>705000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3798,126 +3984,132 @@
       <c r="AN31">
         <v>0</v>
       </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>0.3725</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.4253</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.338</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.4749</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.4547</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.393</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.4748</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.5119</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.3737</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.6066</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.3413</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.4982</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>0.4735</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.4072</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.4692</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0.5215</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>0.5644</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0.5112</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>0.4434</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.5672</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.6735</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.4281</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0.3694</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>0.4276</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.4678</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>0.4091</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.4153</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>0.5253</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.3789</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>0.3982</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>0.5122</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>0.3057</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>0.4023</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0.4039</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>0.5814</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0.3615</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>0.588</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.4214</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.5592</v>
       </c>
     </row>
